--- a/data/trans_orig/Q17B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 0,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,31</t>
+          <t>0,18; 0,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 0,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,33</t>
+          <t>0,23; 0,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 0,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,3</t>
+          <t>0,22; 0,3</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,33</t>
+          <t>0,17; 0,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,37 +1101,37 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0,43</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,37</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,38</t>
+          <t>0,21; 0,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,37</t>
+          <t>0,22; 0,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,5</t>
+          <t>0,34; 0,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,46</t>
+          <t>0,3; 0,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,41</t>
+          <t>0,29; 0,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,4</t>
+          <t>0,29; 0,56</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>106,48</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>60,52</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,16</t>
+          <t>0,07; 0,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 374,84</t>
+          <t>0,12; 0,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 209,09</t>
+          <t>0,1; 0,16</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,27</t>
+          <t>0,17; 0,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,4</t>
+          <t>0,25; 0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,49</t>
+          <t>0,16; 0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,42</t>
+          <t>0,21; 0,41</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,27</t>
+          <t>0,08; 0,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,31</t>
+          <t>0,15; 0,3</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,27</t>
+          <t>0,18; 0,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 30,34</t>
+          <t>0,26; 0,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 18,57</t>
+          <t>0,24; 0,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q17B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,48</t>
+          <t>0,25; 0,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,4</t>
+          <t>0,22; 0,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,56</t>
+          <t>0,36; 0,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,57</t>
+          <t>0,36; 0,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,48</t>
+          <t>0,33; 0,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,46</t>
+          <t>0,31; 0,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,34</t>
+          <t>0,19; 0,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,31</t>
+          <t>0,19; 0,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,32</t>
+          <t>0,18; 0,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,37</t>
+          <t>0,27; 0,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,43</t>
+          <t>0,32; 0,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,32</t>
+          <t>0,22; 0,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,23</t>
+          <t>0,13; 0,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,46</t>
+          <t>0,26; 0,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,33</t>
+          <t>0,22; 0,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,3</t>
+          <t>0,18; 0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,38</t>
+          <t>0,26; 0,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,65</t>
+          <t>0,46; 0,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,34</t>
+          <t>0,23; 0,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,3</t>
+          <t>0,23; 0,3</t>
         </is>
       </c>
     </row>
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,34</t>
+          <t>0,21; 0,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,39</t>
+          <t>0,26; 0,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,27 +1169,27 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,5</t>
+          <t>0,34; 0,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,51</t>
+          <t>0,36; 0,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,66</t>
+          <t>0,31; 0,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,29</t>
+          <t>0,21; 0,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,39</t>
+          <t>0,3; 0,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,56</t>
+          <t>0,29; 0,55</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,48</t>
+          <t>0,23; 0,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,21</t>
+          <t>0,1; 0,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,61</t>
+          <t>0,43; 0,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,54</t>
+          <t>0,34; 0,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,53</t>
+          <t>0,37; 0,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,51</t>
+          <t>0,31; 0,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,96</t>
+          <t>0,59; 0,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,37 +1444,37 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,5</t>
+          <t>0,29; 0,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,56</t>
+          <t>0,41; 0,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,49</t>
+          <t>0,86; 1,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,36</t>
+          <t>0,23; 0,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,34</t>
+          <t>0,22; 0,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,51</t>
+          <t>0,37; 0,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,13</t>
+          <t>0,79; 1,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,38</t>
+          <t>0,24; 0,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,33</t>
+          <t>0,25; 0,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,4</t>
+          <t>0,26; 0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,37</t>
+          <t>0,26; 0,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,48</t>
+          <t>0,15; 0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,39</t>
+          <t>0,27; 0,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,36</t>
+          <t>0,26; 0,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,35</t>
+          <t>0,26; 0,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,48</t>
+          <t>0,32; 0,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,4</t>
+          <t>0,33; 0,41</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,36</t>
+          <t>0,3; 0,35</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,3</t>
+          <t>0,14; 0,29</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,27</t>
+          <t>0,23; 0,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,35</t>
+          <t>0,29; 0,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,44</t>
+          <t>0,39; 0,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,45</t>
+          <t>0,39; 0,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,36</t>
+          <t>0,26; 0,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
